--- a/data/financial_statements/sofp/STZ.xlsx
+++ b/data/financial_statements/sofp/STZ.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+  <si>
+    <t>2022-11-30</t>
+  </si>
+  <si>
+    <t>2022-08-31</t>
+  </si>
+  <si>
+    <t>2022-05-31</t>
+  </si>
+  <si>
+    <t>2022-02-28</t>
+  </si>
+  <si>
+    <t>2021-11-30</t>
+  </si>
+  <si>
+    <t>2021-08-31</t>
+  </si>
+  <si>
+    <t>2021-05-31</t>
+  </si>
+  <si>
+    <t>2021-02-28</t>
+  </si>
+  <si>
+    <t>2020-11-30</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>2020-05-31</t>
+  </si>
+  <si>
+    <t>2020-02-29</t>
+  </si>
+  <si>
+    <t>2019-11-30</t>
+  </si>
+  <si>
+    <t>2019-08-31</t>
+  </si>
+  <si>
+    <t>2019-05-31</t>
+  </si>
+  <si>
+    <t>2019-02-28</t>
+  </si>
+  <si>
+    <t>2018-11-30</t>
+  </si>
+  <si>
+    <t>2018-08-31</t>
+  </si>
+  <si>
+    <t>2018-05-31</t>
+  </si>
+  <si>
+    <t>2018-02-28</t>
+  </si>
+  <si>
+    <t>2017-11-30</t>
+  </si>
+  <si>
+    <t>2017-08-31</t>
+  </si>
+  <si>
+    <t>2017-05-31</t>
+  </si>
+  <si>
+    <t>2017-02-28</t>
+  </si>
+  <si>
+    <t>2016-11-30</t>
+  </si>
+  <si>
+    <t>2016-08-31</t>
+  </si>
+  <si>
+    <t>2016-05-31</t>
+  </si>
+  <si>
+    <t>2016-02-29</t>
+  </si>
+  <si>
+    <t>2015-11-30</t>
+  </si>
+  <si>
+    <t>2015-08-31</t>
+  </si>
+  <si>
+    <t>2015-05-31</t>
+  </si>
+  <si>
+    <t>2015-02-28</t>
+  </si>
+  <si>
+    <t>2014-11-30</t>
+  </si>
+  <si>
+    <t>2014-08-31</t>
+  </si>
+  <si>
+    <t>2014-05-31</t>
+  </si>
+  <si>
+    <t>2014-02-28</t>
+  </si>
+  <si>
+    <t>2013-11-30</t>
+  </si>
+  <si>
+    <t>2013-08-31</t>
+  </si>
+  <si>
+    <t>2013-05-31</t>
+  </si>
+  <si>
+    <t>2013-02-28</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -128,9 +248,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -183,12 +300,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -493,147 +607,147 @@
   <sheetData>
     <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44895</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44804</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44712</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44620</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44530</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44439</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44347</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44255</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44165</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44074</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43982</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43890</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43799</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43708</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43616</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43524</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43434</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43343</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43251</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43159</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43069</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42978</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42886</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42794</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42704</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42613</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42521</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42429</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42338</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42247</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42155</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42063</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41973</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41882</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41790</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41698</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41608</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41517</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41425</v>
-      </c>
-      <c r="AO1" s="2">
-        <v>41333</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:41">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
         <v>185000000</v>
       </c>
       <c r="C2">
-        <v>165100000</v>
+        <v>165000000</v>
       </c>
       <c r="D2">
-        <v>101800000</v>
+        <v>102000000</v>
       </c>
       <c r="E2">
-        <v>199400000</v>
+        <v>199000000</v>
       </c>
       <c r="F2">
-        <v>361300000</v>
+        <v>361000000</v>
       </c>
       <c r="G2">
         <v>103400000</v>
@@ -742,23 +856,23 @@
       </c>
     </row>
     <row r="3" spans="1:41">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
         <v>921000000</v>
       </c>
       <c r="C3">
-        <v>978900000</v>
+        <v>979000000</v>
       </c>
       <c r="D3">
-        <v>879900000</v>
+        <v>880000000</v>
       </c>
       <c r="E3">
-        <v>899000000</v>
+        <v>1119000000</v>
       </c>
       <c r="F3">
-        <v>917800000</v>
+        <v>918000000</v>
       </c>
       <c r="G3">
         <v>972800000</v>
@@ -867,8 +981,8 @@
       </c>
     </row>
     <row r="4" spans="1:41">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
         <v>1802000000</v>
@@ -877,13 +991,13 @@
         <v>1651000000</v>
       </c>
       <c r="D4">
-        <v>1656400000</v>
+        <v>1656000000</v>
       </c>
       <c r="E4">
-        <v>1573200000</v>
+        <v>1573000000</v>
       </c>
       <c r="F4">
-        <v>1518900000</v>
+        <v>1519000000</v>
       </c>
       <c r="G4">
         <v>1339000000</v>
@@ -992,8 +1106,11 @@
       </c>
     </row>
     <row r="5" spans="1:41">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5">
+        <v>618000000</v>
       </c>
       <c r="C5">
         <v>735000000</v>
@@ -1039,23 +1156,23 @@
       </c>
     </row>
     <row r="6" spans="1:41">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
-        <v>3525900000</v>
+        <v>3526000000</v>
       </c>
       <c r="C6">
-        <v>3530200000</v>
+        <v>3530000000</v>
       </c>
       <c r="D6">
-        <v>3302200000</v>
+        <v>3302000000</v>
       </c>
       <c r="E6">
-        <v>3329700000</v>
+        <v>3330000000</v>
       </c>
       <c r="F6">
-        <v>3376600000</v>
+        <v>3377000000</v>
       </c>
       <c r="G6">
         <v>2943700000</v>
@@ -1164,23 +1281,23 @@
       </c>
     </row>
     <row r="7" spans="1:41">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
-        <v>6523800000</v>
+        <v>6524000000</v>
       </c>
       <c r="C7">
         <v>6234000000</v>
       </c>
       <c r="D7">
-        <v>6163300000</v>
+        <v>6163000000</v>
       </c>
       <c r="E7">
-        <v>6059600000</v>
+        <v>6539000000</v>
       </c>
       <c r="F7">
-        <v>5519300000</v>
+        <v>5519000000</v>
       </c>
       <c r="G7">
         <v>5505400000</v>
@@ -1289,23 +1406,23 @@
       </c>
     </row>
     <row r="8" spans="1:41">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
-        <v>771400000</v>
+        <v>984000000</v>
       </c>
       <c r="C8">
-        <v>833400000</v>
+        <v>1011000000</v>
       </c>
       <c r="D8">
-        <v>2534000000</v>
+        <v>2807000000</v>
       </c>
       <c r="E8">
-        <v>2688700000</v>
+        <v>2935000000</v>
       </c>
       <c r="F8">
-        <v>2756400000</v>
+        <v>3074000000</v>
       </c>
       <c r="G8">
         <v>2819000000</v>
@@ -1348,23 +1465,23 @@
       </c>
     </row>
     <row r="9" spans="1:41">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
-        <v>10638100000</v>
+        <v>10638000000</v>
       </c>
       <c r="C9">
-        <v>10662200000</v>
+        <v>10662000000</v>
       </c>
       <c r="D9">
-        <v>10680800000</v>
+        <v>10681000000</v>
       </c>
       <c r="E9">
-        <v>10617600000</v>
+        <v>10618000000</v>
       </c>
       <c r="F9">
-        <v>10604800000</v>
+        <v>10605000000</v>
       </c>
       <c r="G9">
         <v>10528600000</v>
@@ -1473,8 +1590,8 @@
       </c>
     </row>
     <row r="10" spans="1:41">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
         <v>2241700000</v>
@@ -1526,23 +1643,23 @@
       </c>
     </row>
     <row r="11" spans="1:41">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
-        <v>762100000</v>
+        <v>550000000</v>
       </c>
       <c r="C11">
-        <v>728800000</v>
+        <v>552000000</v>
       </c>
       <c r="D11">
-        <v>826000000</v>
+        <v>553000000</v>
       </c>
       <c r="E11">
-        <v>808700000</v>
+        <v>84000000</v>
       </c>
       <c r="F11">
-        <v>856000000</v>
+        <v>539000000</v>
       </c>
       <c r="G11">
         <v>1095600000</v>
@@ -1651,8 +1768,8 @@
       </c>
     </row>
     <row r="12" spans="1:41">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
         <v>20937100000</v>
@@ -1776,23 +1893,23 @@
       </c>
     </row>
     <row r="13" spans="1:41">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
         <v>24463000000</v>
       </c>
       <c r="C13">
-        <v>24280900000</v>
+        <v>24281000000</v>
       </c>
       <c r="D13">
-        <v>25841100000</v>
+        <v>25841000000</v>
       </c>
       <c r="E13">
-        <v>25855800000</v>
+        <v>25856000000</v>
       </c>
       <c r="F13">
-        <v>25527300000</v>
+        <v>25527000000</v>
       </c>
       <c r="G13">
         <v>25340300000</v>
@@ -1901,8 +2018,8 @@
       </c>
     </row>
     <row r="14" spans="1:41">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="R14">
         <v>731500000</v>
@@ -1972,23 +2089,23 @@
       </c>
     </row>
     <row r="15" spans="1:41">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
-        <v>1008100000</v>
+        <v>1008000000</v>
       </c>
       <c r="C15">
-        <v>959100000</v>
+        <v>959000000</v>
       </c>
       <c r="D15">
-        <v>874600000</v>
+        <v>875000000</v>
       </c>
       <c r="E15">
-        <v>899200000</v>
+        <v>899000000</v>
       </c>
       <c r="F15">
-        <v>945400000</v>
+        <v>945000000</v>
       </c>
       <c r="G15">
         <v>840400000</v>
@@ -2097,8 +2214,8 @@
       </c>
     </row>
     <row r="16" spans="1:41">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="Z16">
         <v>33000000</v>
@@ -2150,23 +2267,23 @@
       </c>
     </row>
     <row r="17" spans="1:41">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
-        <v>885200000</v>
+        <v>885000000</v>
       </c>
       <c r="C17">
-        <v>671500000</v>
+        <v>672000000</v>
       </c>
       <c r="D17">
-        <v>699100000</v>
+        <v>699000000</v>
       </c>
       <c r="E17">
-        <v>928300000</v>
+        <v>1009000000</v>
       </c>
       <c r="F17">
-        <v>248700000</v>
+        <v>318000000</v>
       </c>
       <c r="G17">
         <v>491800000</v>
@@ -2275,8 +2392,11 @@
       </c>
     </row>
     <row r="18" spans="1:41">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18">
+        <v>832000000</v>
       </c>
       <c r="C18">
         <v>881000000</v>
@@ -2313,23 +2433,23 @@
       </c>
     </row>
     <row r="19" spans="1:41">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
         <v>2725000000</v>
       </c>
       <c r="C19">
-        <v>2511900000</v>
+        <v>2512000000</v>
       </c>
       <c r="D19">
-        <v>2365800000</v>
+        <v>2366000000</v>
       </c>
       <c r="E19">
-        <v>2698800000</v>
+        <v>2699000000</v>
       </c>
       <c r="F19">
-        <v>2248600000</v>
+        <v>2249000000</v>
       </c>
       <c r="G19">
         <v>2187100000</v>
@@ -2438,23 +2558,23 @@
       </c>
     </row>
     <row r="20" spans="1:41">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
-        <v>11287100000</v>
+        <v>11287000000</v>
       </c>
       <c r="C20">
-        <v>10278700000</v>
+        <v>10279000000</v>
       </c>
       <c r="D20">
-        <v>10278200000</v>
+        <v>10278000000</v>
       </c>
       <c r="E20">
-        <v>9488200000</v>
+        <v>9946000000</v>
       </c>
       <c r="F20">
-        <v>10083800000</v>
+        <v>10084000000</v>
       </c>
       <c r="G20">
         <v>10081700000</v>
@@ -2563,31 +2683,31 @@
       </c>
     </row>
     <row r="21" spans="1:41">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="E21">
         <v>104000000</v>
       </c>
     </row>
     <row r="22" spans="1:41">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
-        <v>1734200000</v>
+        <v>-2242000000</v>
       </c>
       <c r="C22">
-        <v>1779400000</v>
+        <v>-2292000000</v>
       </c>
       <c r="D22">
-        <v>1638600000</v>
+        <v>-2335000000</v>
       </c>
       <c r="E22">
-        <v>1621000000</v>
+        <v>-1518000000</v>
       </c>
       <c r="F22">
-        <v>1648500000</v>
+        <v>-2414000000</v>
       </c>
       <c r="G22">
         <v>1546900000</v>
@@ -2687,8 +2807,11 @@
       </c>
     </row>
     <row r="23" spans="1:41">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23">
+        <v>1734000000</v>
       </c>
       <c r="C23">
         <v>1779000000</v>
@@ -2794,8 +2917,8 @@
       </c>
     </row>
     <row r="24" spans="1:41">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
         <v>13021300000</v>
@@ -2919,23 +3042,23 @@
       </c>
     </row>
     <row r="25" spans="1:41">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
-        <v>15746300000</v>
+        <v>15746000000</v>
       </c>
       <c r="C25">
         <v>14570000000</v>
       </c>
       <c r="D25">
-        <v>14282600000</v>
+        <v>14283000000</v>
       </c>
       <c r="E25">
         <v>13808000000</v>
       </c>
       <c r="F25">
-        <v>13980900000</v>
+        <v>13981000000</v>
       </c>
       <c r="G25">
         <v>13815700000</v>
@@ -3044,8 +3167,11 @@
       </c>
     </row>
     <row r="26" spans="1:41">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26">
+        <v>1883600000</v>
       </c>
       <c r="C26">
         <v>1860400000</v>
@@ -3166,20 +3292,23 @@
       </c>
     </row>
     <row r="27" spans="1:41">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27">
+        <v>2000000</v>
       </c>
       <c r="C27">
-        <v>2200000</v>
+        <v>2000000</v>
       </c>
       <c r="D27">
-        <v>2200000</v>
+        <v>2000000</v>
       </c>
       <c r="E27">
-        <v>2200000</v>
+        <v>2000000</v>
       </c>
       <c r="F27">
-        <v>2200000</v>
+        <v>2000000</v>
       </c>
       <c r="G27">
         <v>2200000</v>
@@ -3288,20 +3417,23 @@
       </c>
     </row>
     <row r="28" spans="1:41">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28">
+        <v>12268000000</v>
       </c>
       <c r="C28">
-        <v>13448400000</v>
+        <v>13448000000</v>
       </c>
       <c r="D28">
-        <v>14746200000</v>
+        <v>14746000000</v>
       </c>
       <c r="E28">
-        <v>14505400000</v>
+        <v>14505000000</v>
       </c>
       <c r="F28">
-        <v>14251600000</v>
+        <v>14252000000</v>
       </c>
       <c r="G28">
         <v>13922200000</v>
@@ -3410,8 +3542,11 @@
       </c>
     </row>
     <row r="29" spans="1:41">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29">
+        <v>5563100000</v>
       </c>
       <c r="C29">
         <v>5566600000</v>
@@ -3532,23 +3667,23 @@
       </c>
     </row>
     <row r="30" spans="1:41">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
-        <v>327200000</v>
+        <v>8390000000</v>
       </c>
       <c r="C30">
-        <v>9710900000</v>
+        <v>9389000000</v>
       </c>
       <c r="D30">
-        <v>11558500000</v>
+        <v>11231000000</v>
       </c>
       <c r="E30">
-        <v>12047800000</v>
+        <v>11732000000</v>
       </c>
       <c r="F30">
-        <v>11546400000</v>
+        <v>11238000000</v>
       </c>
       <c r="G30">
         <v>11524600000</v>
@@ -3657,23 +3792,23 @@
       </c>
     </row>
     <row r="31" spans="1:41">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
-        <v>8716700000</v>
+        <v>8390000000</v>
       </c>
       <c r="C31">
-        <v>9710900000</v>
+        <v>9389000000</v>
       </c>
       <c r="D31">
-        <v>11558500000</v>
+        <v>11231000000</v>
       </c>
       <c r="E31">
-        <v>12047800000</v>
+        <v>11732000000</v>
       </c>
       <c r="F31">
-        <v>11546400000</v>
+        <v>11238000000</v>
       </c>
       <c r="G31">
         <v>11524600000</v>
@@ -3782,8 +3917,8 @@
       </c>
     </row>
     <row r="32" spans="1:41">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
         <v>24463000000</v>
@@ -3907,8 +4042,11 @@
       </c>
     </row>
     <row r="33" spans="1:41">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33">
+        <v>184492000</v>
       </c>
       <c r="C33">
         <v>184428000</v>
@@ -4029,8 +4167,8 @@
       </c>
     </row>
     <row r="34" spans="1:41">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
         <v>-1921399000</v>
@@ -4154,23 +4292,23 @@
       </c>
     </row>
     <row r="35" spans="1:41">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B35">
-        <v>11987300000</v>
+        <v>11987000000</v>
       </c>
       <c r="C35">
-        <v>10785100000</v>
+        <v>10786000000</v>
       </c>
       <c r="D35">
-        <v>10875500000</v>
+        <v>10875000000</v>
       </c>
       <c r="E35">
-        <v>10217100000</v>
+        <v>10756000000</v>
       </c>
       <c r="F35">
-        <v>9971200000</v>
+        <v>10041000000</v>
       </c>
       <c r="G35">
         <v>10470100000</v>
@@ -4279,23 +4417,23 @@
       </c>
     </row>
     <row r="36" spans="1:41">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B36">
-        <v>12172300000</v>
+        <v>12172000000</v>
       </c>
       <c r="C36">
-        <v>10950200000</v>
+        <v>10951000000</v>
       </c>
       <c r="D36">
-        <v>10977300000</v>
+        <v>10977000000</v>
       </c>
       <c r="E36">
-        <v>10416500000</v>
+        <v>10955000000</v>
       </c>
       <c r="F36">
-        <v>10332500000</v>
+        <v>10402000000</v>
       </c>
       <c r="G36">
         <v>10573500000</v>
